--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_10.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-69827.70331025346</v>
+        <v>-69827.70331025343</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,7 +26528,7 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-111406.0580318765</v>
+        <v>-111406.0580318764</v>
       </c>
       <c r="F6" t="n">
         <v>21693.94196812358</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-69827.70331025343</v>
+        <v>-56101.34517283527</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,7 +26530,7 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-111406.0580318764</v>
+        <v>-111406.0580318765</v>
       </c>
       <c r="F6" t="n">
         <v>21693.94196812358</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-56101.34517283527</v>
+        <v>-213853.640776218</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>11725512.32632771</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27752399.88113482</v>
+        <v>26001144.95055344</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1317462.046190584</v>
+        <v>2287363.409153219</v>
       </c>
     </row>
     <row r="11">
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8221,7 +8221,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8619,19 +8619,19 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,10 +8850,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -8862,10 +8862,10 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,13 +9084,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -9099,13 +9099,13 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9573,13 +9573,13 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -10050,10 +10050,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -10281,16 +10281,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -10524,10 +10524,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10761,10 +10761,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10837,16 +10837,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,19 +11062,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -11229,16 +11229,16 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>222.3056898744495</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22646,13 +22646,13 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -22670,10 +22670,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22728,28 +22728,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22813,7 +22813,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>230.3462332272727</v>
@@ -22822,16 +22822,16 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22883,10 +22883,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>137.841438974359</v>
@@ -22910,7 +22910,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22965,10 +22965,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>134.8846762812383</v>
@@ -22986,7 +22986,7 @@
         <v>137.7280040491476</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23068,7 +23068,7 @@
         <v>222.3056898744495</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23120,34 +23120,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23202,7 +23202,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>129.0132581705354</v>
@@ -23211,19 +23211,19 @@
         <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23281,7 +23281,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J11" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>135.370731907559</v>
@@ -23302,10 +23302,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S11" t="n">
         <v>193.8433399116564</v>
@@ -23357,7 +23357,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I12" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J12" t="n">
         <v>93.17061249236157</v>
@@ -23384,7 +23384,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R12" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S12" t="n">
         <v>165.0641745378389</v>
@@ -23442,10 +23442,10 @@
         <v>105.873818686614</v>
       </c>
       <c r="K13" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>92.09541281912071</v>
@@ -23454,10 +23454,10 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O13" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>126.4887893424616</v>
@@ -23539,7 +23539,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>173.7492132756177</v>
@@ -23594,10 +23594,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I15" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J15" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>80.29914934735042</v>
@@ -23618,10 +23618,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S15" t="n">
         <v>165.0641745378389</v>
@@ -23676,13 +23676,13 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J16" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K16" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>92.09541281912071</v>
@@ -23691,13 +23691,13 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R16" t="n">
         <v>163.8605191622716</v>
@@ -23779,7 +23779,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
         <v>193.8433399116564</v>
@@ -23831,10 +23831,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>80.29914934735042</v>
@@ -23852,13 +23852,13 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
         <v>165.0641745378389</v>
@@ -23913,7 +23913,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J19" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
         <v>94.30397654773019</v>
@@ -23934,7 +23934,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
         <v>163.8605191622716</v>
@@ -23992,7 +23992,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>135.370731907559</v>
@@ -24013,10 +24013,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
         <v>193.8433399116564</v>
@@ -24068,10 +24068,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I21" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>80.29914934735042</v>
@@ -24092,10 +24092,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S21" t="n">
         <v>165.0641745378389</v>
@@ -24150,7 +24150,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
         <v>94.30397654773019</v>
@@ -24165,13 +24165,13 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R22" t="n">
         <v>163.8605191622716</v>
@@ -24229,7 +24229,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>135.370731907559</v>
@@ -24244,16 +24244,16 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
         <v>193.8433399116564</v>
@@ -24305,10 +24305,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>80.29914934735042</v>
@@ -24329,7 +24329,7 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>123.5547069419379</v>
@@ -24387,28 +24387,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
         <v>163.8605191622716</v>
@@ -24490,7 +24490,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S26" t="n">
         <v>193.8433399116564</v>
@@ -24624,10 +24624,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>90.4687457914608</v>
@@ -24642,10 +24642,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R28" t="n">
         <v>163.8605191622716</v>
@@ -24703,10 +24703,10 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>130.6648563030561</v>
@@ -24724,10 +24724,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
         <v>193.8433399116564</v>
@@ -24779,13 +24779,13 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>61.18167021676314</v>
@@ -24861,10 +24861,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J31" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K31" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>90.4687457914608</v>
@@ -24873,16 +24873,16 @@
         <v>92.09541281912071</v>
       </c>
       <c r="N31" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R31" t="n">
         <v>163.8605191622716</v>
@@ -24940,10 +24940,10 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>130.6648563030561</v>
@@ -24961,10 +24961,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S32" t="n">
         <v>193.8433399116564</v>
@@ -25016,13 +25016,13 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I33" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>61.18167021676314</v>
@@ -25037,13 +25037,13 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S33" t="n">
         <v>165.0641745378389</v>
@@ -25101,7 +25101,7 @@
         <v>105.873818686614</v>
       </c>
       <c r="K34" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>90.4687457914608</v>
@@ -25116,10 +25116,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R34" t="n">
         <v>163.8605191622716</v>
@@ -25177,7 +25177,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J35" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>135.370731907559</v>
@@ -25198,10 +25198,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S35" t="n">
         <v>193.8433399116564</v>
@@ -25253,10 +25253,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I36" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J36" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>80.29914934735042</v>
@@ -25280,7 +25280,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S36" t="n">
         <v>165.0641745378389</v>
@@ -25335,7 +25335,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J37" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
         <v>94.30397654773019</v>
@@ -25353,10 +25353,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R37" t="n">
         <v>163.8605191622716</v>
@@ -25414,10 +25414,10 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>130.6648563030561</v>
@@ -25429,16 +25429,16 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
         <v>193.8433399116564</v>
@@ -25490,10 +25490,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>80.29914934735042</v>
@@ -25517,7 +25517,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
         <v>165.0641745378389</v>
@@ -25654,19 +25654,19 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>135.4597561231036</v>
@@ -25727,10 +25727,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I42" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>80.29914934735042</v>
@@ -25754,7 +25754,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S42" t="n">
         <v>165.0641745378389</v>
@@ -25809,10 +25809,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J43" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>90.4687457914608</v>
@@ -25821,16 +25821,16 @@
         <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R43" t="n">
         <v>163.8605191622716</v>
@@ -25909,10 +25909,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
         <v>193.8433399116564</v>
@@ -25964,13 +25964,13 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>61.18167021676314</v>
@@ -25991,7 +25991,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
         <v>165.0641745378389</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.036823960021138e-11</v>
+        <v>75949.33599339738</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.036823960021138e-11</v>
+        <v>160217.4153009774</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.036823960021138e-11</v>
+        <v>97053.52336579817</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>151833.3244387914</v>
+        <v>220446.1410159863</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>151833.3244387914</v>
+        <v>211907.9514679066</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>151833.3244387914</v>
+        <v>188608.3178831643</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>151833.3244387914</v>
+        <v>230915.0014058352</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>151833.3244387914</v>
+        <v>274716.2936300523</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>151833.3244387914</v>
+        <v>173680.2327409463</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>151833.3244387914</v>
+        <v>253056.4568721493</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>151833.3244387914</v>
+        <v>259531.6269669954</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>151833.3244387914</v>
+        <v>219703.9750786082</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>151833.3244387914</v>
+        <v>246941.6836146521</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>151833.3244387914</v>
+        <v>253053.4304664177</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>151833.3244387914</v>
+        <v>199609.5081753974</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>10697.08957653485</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>22565.83314098273</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>13669.51033321102</v>
       </c>
       <c r="E2" t="n">
-        <v>25305.55407313191</v>
+        <v>34969.33105583544</v>
       </c>
       <c r="F2" t="n">
-        <v>25305.55407313191</v>
+        <v>33766.76914765517</v>
       </c>
       <c r="G2" t="n">
-        <v>25305.55407313191</v>
+        <v>30485.13061459288</v>
       </c>
       <c r="H2" t="n">
-        <v>25305.55407313191</v>
+        <v>36443.81843468738</v>
       </c>
       <c r="I2" t="n">
-        <v>25305.55407313191</v>
+        <v>42613.01452260531</v>
       </c>
       <c r="J2" t="n">
-        <v>25305.55407313191</v>
+        <v>28382.58341146359</v>
       </c>
       <c r="K2" t="n">
-        <v>25305.55407313191</v>
+        <v>39562.33328909783</v>
       </c>
       <c r="L2" t="n">
-        <v>25305.55407313191</v>
+        <v>40474.32907710433</v>
       </c>
       <c r="M2" t="n">
-        <v>25305.55407313191</v>
+        <v>34864.8006421202</v>
       </c>
       <c r="N2" t="n">
-        <v>25305.55407313191</v>
+        <v>38701.09761902781</v>
       </c>
       <c r="O2" t="n">
-        <v>25305.55407313191</v>
+        <v>39561.90703476946</v>
       </c>
       <c r="P2" t="n">
-        <v>25305.55407313191</v>
+        <v>32034.59403603417</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>11766.79853418833</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>24822.416455081</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>15036.46136653212</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>10630.15468097386</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>9307.336581975582</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>5697.534195607065</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>12252.09079771101</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>19038.20649442073</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3384.732272164845</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>15682.45713756251</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>16685.65250436965</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>10515.17122588712</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>14735.09790048547</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>15681.98825780129</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>7401.943959192482</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="E6" t="n">
-        <v>-111406.0580318765</v>
+        <v>-129401.5468711703</v>
       </c>
       <c r="F6" t="n">
-        <v>21693.94196812358</v>
+        <v>3698.453128829697</v>
       </c>
       <c r="G6" t="n">
-        <v>21693.94196812358</v>
+        <v>3698.453128829693</v>
       </c>
       <c r="H6" t="n">
-        <v>21693.94196812358</v>
+        <v>3698.4531288297</v>
       </c>
       <c r="I6" t="n">
-        <v>21693.94196812358</v>
+        <v>3698.453128829698</v>
       </c>
       <c r="J6" t="n">
-        <v>21693.94196812358</v>
+        <v>3698.453128829693</v>
       </c>
       <c r="K6" t="n">
-        <v>21693.94196812358</v>
+        <v>3698.4531288297</v>
       </c>
       <c r="L6" t="n">
-        <v>21693.94196812358</v>
+        <v>3698.453128829715</v>
       </c>
       <c r="M6" t="n">
-        <v>21693.94196812358</v>
+        <v>3698.453128829693</v>
       </c>
       <c r="N6" t="n">
-        <v>21693.94196812358</v>
+        <v>3698.453128829711</v>
       </c>
       <c r="O6" t="n">
-        <v>21693.94196812358</v>
+        <v>3698.453128829708</v>
       </c>
       <c r="P6" t="n">
-        <v>21693.94196812358</v>
+        <v>3698.453128829697</v>
       </c>
     </row>
   </sheetData>
